--- a/NewMergedReportExcel.xlsx
+++ b/NewMergedReportExcel.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$A$1:$R$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$A$1:$R$1000</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -17234,7 +17234,7 @@
         <v>1218</v>
       </c>
       <c r="E2" s="1">
-        <v>26.61</v>
+        <v>26.64</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1220</v>
@@ -17278,7 +17278,7 @@
         <v>1218</v>
       </c>
       <c r="E3" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1220</v>
@@ -17322,7 +17322,7 @@
         <v>1218</v>
       </c>
       <c r="E4" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1220</v>
@@ -17366,7 +17366,7 @@
         <v>1218</v>
       </c>
       <c r="E5" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1220</v>
@@ -17410,7 +17410,7 @@
         <v>1219</v>
       </c>
       <c r="E6" s="1">
-        <v>26.61</v>
+        <v>26.64</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1221</v>
@@ -17451,7 +17451,7 @@
         <v>1218</v>
       </c>
       <c r="E7" s="1">
-        <v>23.62</v>
+        <v>23.65</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1220</v>
@@ -17495,7 +17495,7 @@
         <v>1218</v>
       </c>
       <c r="E8" s="1">
-        <v>123.95</v>
+        <v>123.98</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>1220</v>
@@ -17548,7 +17548,7 @@
         <v>1218</v>
       </c>
       <c r="E9" s="1">
-        <v>29.6</v>
+        <v>29.63</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1220</v>
@@ -17592,7 +17592,7 @@
         <v>1219</v>
       </c>
       <c r="E10" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1222</v>
@@ -17633,7 +17633,7 @@
         <v>1218</v>
       </c>
       <c r="E11" s="1">
-        <v>49.15</v>
+        <v>49.18</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1220</v>
@@ -17686,7 +17686,7 @@
         <v>1218</v>
       </c>
       <c r="E12" s="1">
-        <v>20.86</v>
+        <v>20.89</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1220</v>
@@ -17736,7 +17736,7 @@
         <v>1219</v>
       </c>
       <c r="E13" s="1">
-        <v>20.86</v>
+        <v>20.89</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>1223</v>
@@ -17777,7 +17777,7 @@
         <v>1219</v>
       </c>
       <c r="E14" s="1">
-        <v>40.87</v>
+        <v>40.9</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>1224</v>
@@ -17818,7 +17818,7 @@
         <v>1218</v>
       </c>
       <c r="E15" s="1">
-        <v>45.01</v>
+        <v>45.04</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>1220</v>
@@ -17862,7 +17862,7 @@
         <v>1218</v>
       </c>
       <c r="E16" s="1">
-        <v>23.62</v>
+        <v>23.65</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1220</v>
@@ -17906,7 +17906,7 @@
         <v>1219</v>
       </c>
       <c r="E17" s="1">
-        <v>35.58</v>
+        <v>35.61</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>1224</v>
@@ -17947,7 +17947,7 @@
         <v>1219</v>
       </c>
       <c r="E18" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>1225</v>
@@ -17988,7 +17988,7 @@
         <v>1219</v>
       </c>
       <c r="E19" s="1">
-        <v>20.86</v>
+        <v>20.89</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>1222</v>
@@ -18029,7 +18029,7 @@
         <v>1218</v>
       </c>
       <c r="E20" s="1">
-        <v>23.62</v>
+        <v>23.65</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>1220</v>
@@ -18073,7 +18073,7 @@
         <v>1219</v>
       </c>
       <c r="E21" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>1221</v>
@@ -18114,7 +18114,7 @@
         <v>1218</v>
       </c>
       <c r="E22" s="1">
-        <v>30.06</v>
+        <v>30.09</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>1220</v>
@@ -18158,7 +18158,7 @@
         <v>1218</v>
       </c>
       <c r="E23" s="1">
-        <v>26.61</v>
+        <v>26.64</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>1220</v>
@@ -18202,7 +18202,7 @@
         <v>1218</v>
       </c>
       <c r="E24" s="1">
-        <v>34.89</v>
+        <v>34.92</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>1220</v>
@@ -18246,7 +18246,7 @@
         <v>1218</v>
       </c>
       <c r="E25" s="1">
-        <v>29.6</v>
+        <v>29.63</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>1220</v>
@@ -18290,7 +18290,7 @@
         <v>1218</v>
       </c>
       <c r="E26" s="1">
-        <v>42.25</v>
+        <v>42.28</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>1220</v>
@@ -18343,7 +18343,7 @@
         <v>1218</v>
       </c>
       <c r="E27" s="1">
-        <v>23.62</v>
+        <v>23.65</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>1220</v>
@@ -18387,7 +18387,7 @@
         <v>1218</v>
       </c>
       <c r="E28" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>1220</v>
@@ -18431,7 +18431,7 @@
         <v>1218</v>
       </c>
       <c r="E29" s="1">
-        <v>32.36</v>
+        <v>32.39</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>1220</v>
@@ -18484,7 +18484,7 @@
         <v>1219</v>
       </c>
       <c r="E30" s="1">
-        <v>20.86</v>
+        <v>20.89</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>1224</v>
@@ -18525,7 +18525,7 @@
         <v>1218</v>
       </c>
       <c r="E31" s="1">
-        <v>30.06</v>
+        <v>30.09</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>1220</v>
@@ -18578,7 +18578,7 @@
         <v>1218</v>
       </c>
       <c r="E32" s="1">
-        <v>29.6</v>
+        <v>29.63</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>1220</v>
@@ -18634,7 +18634,7 @@
         <v>1218</v>
       </c>
       <c r="E33" s="1">
-        <v>26.61</v>
+        <v>26.64</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>1220</v>
@@ -18678,7 +18678,7 @@
         <v>1219</v>
       </c>
       <c r="E34" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>1223</v>
@@ -18719,7 +18719,7 @@
         <v>1219</v>
       </c>
       <c r="E35" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>1226</v>
@@ -18760,7 +18760,7 @@
         <v>1218</v>
       </c>
       <c r="E36" s="1">
-        <v>39.59</v>
+        <v>39.62</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>1220</v>
@@ -18813,7 +18813,7 @@
         <v>1218</v>
       </c>
       <c r="E37" s="1">
-        <v>42.25</v>
+        <v>42.28</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>1220</v>
@@ -18866,7 +18866,7 @@
         <v>1219</v>
       </c>
       <c r="E38" s="1">
-        <v>39.59</v>
+        <v>39.62</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>1222</v>
@@ -18907,7 +18907,7 @@
         <v>1219</v>
       </c>
       <c r="E39" s="1">
-        <v>32.59</v>
+        <v>32.62</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>1225</v>
@@ -18948,7 +18948,7 @@
         <v>1218</v>
       </c>
       <c r="E40" s="1">
-        <v>42.25</v>
+        <v>42.28</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>1220</v>
@@ -19001,7 +19001,7 @@
         <v>1218</v>
       </c>
       <c r="E41" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>1220</v>
@@ -19054,7 +19054,7 @@
         <v>1219</v>
       </c>
       <c r="E42" s="1">
-        <v>45.01</v>
+        <v>45.04</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>1225</v>
@@ -19095,7 +19095,7 @@
         <v>1219</v>
       </c>
       <c r="E43" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>1221</v>
@@ -19136,7 +19136,7 @@
         <v>1218</v>
       </c>
       <c r="E44" s="1">
-        <v>30.06</v>
+        <v>30.09</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>1220</v>
@@ -19180,7 +19180,7 @@
         <v>1218</v>
       </c>
       <c r="E45" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>1220</v>
@@ -19224,7 +19224,7 @@
         <v>1218</v>
       </c>
       <c r="E46" s="1">
-        <v>42.25</v>
+        <v>42.28</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>1220</v>
@@ -19268,7 +19268,7 @@
         <v>1219</v>
       </c>
       <c r="E47" s="1">
-        <v>40.87</v>
+        <v>40.9</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>1223</v>
@@ -19309,7 +19309,7 @@
         <v>1218</v>
       </c>
       <c r="E48" s="1">
-        <v>32.59</v>
+        <v>32.62</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>1220</v>
@@ -19362,7 +19362,7 @@
         <v>1218</v>
       </c>
       <c r="E49" s="1">
-        <v>30.06</v>
+        <v>30.09</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>1220</v>
@@ -19415,7 +19415,7 @@
         <v>1219</v>
       </c>
       <c r="E50" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>1223</v>
@@ -19456,7 +19456,7 @@
         <v>1218</v>
       </c>
       <c r="E51" s="1">
-        <v>20.86</v>
+        <v>20.89</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>1220</v>
@@ -19500,7 +19500,7 @@
         <v>1218</v>
       </c>
       <c r="E52" s="1">
-        <v>29.6</v>
+        <v>29.63</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>1220</v>
@@ -19544,7 +19544,7 @@
         <v>1218</v>
       </c>
       <c r="E53" s="1">
-        <v>26.61</v>
+        <v>26.64</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>1220</v>
@@ -19597,7 +19597,7 @@
         <v>1218</v>
       </c>
       <c r="E54" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>1220</v>
@@ -19650,7 +19650,7 @@
         <v>1218</v>
       </c>
       <c r="E55" s="1">
-        <v>35.58</v>
+        <v>35.61</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>1220</v>
@@ -19706,7 +19706,7 @@
         <v>1218</v>
       </c>
       <c r="E56" s="1">
-        <v>26.61</v>
+        <v>26.64</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>1220</v>
@@ -19750,7 +19750,7 @@
         <v>1219</v>
       </c>
       <c r="E57" s="1">
-        <v>30.06</v>
+        <v>30.09</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>1227</v>
@@ -19791,7 +19791,7 @@
         <v>1218</v>
       </c>
       <c r="E58" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>1220</v>
@@ -19835,7 +19835,7 @@
         <v>1219</v>
       </c>
       <c r="E59" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>1224</v>
@@ -19876,7 +19876,7 @@
         <v>1218</v>
       </c>
       <c r="E60" s="1">
-        <v>32.59</v>
+        <v>32.62</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>1220</v>
@@ -19929,7 +19929,7 @@
         <v>1218</v>
       </c>
       <c r="E61" s="1">
-        <v>39.59</v>
+        <v>39.62</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>1220</v>
@@ -19973,7 +19973,7 @@
         <v>1218</v>
       </c>
       <c r="E62" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>1220</v>
@@ -20017,7 +20017,7 @@
         <v>1218</v>
       </c>
       <c r="E63" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>1220</v>
@@ -20061,7 +20061,7 @@
         <v>1219</v>
       </c>
       <c r="E64" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>1224</v>
@@ -20102,7 +20102,7 @@
         <v>1219</v>
       </c>
       <c r="E65" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>1223</v>
@@ -20143,7 +20143,7 @@
         <v>1219</v>
       </c>
       <c r="E66" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>1225</v>
@@ -20184,7 +20184,7 @@
         <v>1218</v>
       </c>
       <c r="E67" s="1">
-        <v>32.59</v>
+        <v>32.62</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>1220</v>
@@ -20228,7 +20228,7 @@
         <v>1219</v>
       </c>
       <c r="E68" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>1223</v>
@@ -20269,7 +20269,7 @@
         <v>1218</v>
       </c>
       <c r="E69" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>1220</v>
@@ -20313,7 +20313,7 @@
         <v>1218</v>
       </c>
       <c r="E70" s="1">
-        <v>32.59</v>
+        <v>32.62</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>1220</v>
@@ -20366,7 +20366,7 @@
         <v>1219</v>
       </c>
       <c r="E71" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>1223</v>
@@ -20407,7 +20407,7 @@
         <v>1219</v>
       </c>
       <c r="E72" s="1">
-        <v>18.33</v>
+        <v>18.36</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>1226</v>
@@ -20448,7 +20448,7 @@
         <v>1219</v>
       </c>
       <c r="E73" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>1225</v>
@@ -20489,7 +20489,7 @@
         <v>1218</v>
       </c>
       <c r="E74" s="1">
-        <v>49.15</v>
+        <v>49.18</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>1220</v>
@@ -20542,7 +20542,7 @@
         <v>1219</v>
       </c>
       <c r="E75" s="1">
-        <v>23.62</v>
+        <v>23.65</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>1225</v>
@@ -20583,7 +20583,7 @@
         <v>1218</v>
       </c>
       <c r="E76" s="1">
-        <v>53.06</v>
+        <v>53.09</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>1220</v>
@@ -20636,7 +20636,7 @@
         <v>1219</v>
       </c>
       <c r="E77" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>1227</v>
@@ -20677,7 +20677,7 @@
         <v>1218</v>
       </c>
       <c r="E78" s="1">
-        <v>32.59</v>
+        <v>32.62</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>1220</v>
@@ -20730,7 +20730,7 @@
         <v>1218</v>
       </c>
       <c r="E79" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>1220</v>
@@ -20774,7 +20774,7 @@
         <v>1218</v>
       </c>
       <c r="E80" s="1">
-        <v>30.06</v>
+        <v>30.09</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>1220</v>
@@ -20818,7 +20818,7 @@
         <v>1218</v>
       </c>
       <c r="E81" s="1">
-        <v>29.6</v>
+        <v>29.63</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>1220</v>
@@ -20862,7 +20862,7 @@
         <v>1219</v>
       </c>
       <c r="E82" s="1">
-        <v>40.87</v>
+        <v>40.9</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>1222</v>
@@ -20903,7 +20903,7 @@
         <v>1219</v>
       </c>
       <c r="E83" s="1">
-        <v>30.06</v>
+        <v>30.09</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>1221</v>
@@ -20944,7 +20944,7 @@
         <v>1218</v>
       </c>
       <c r="E84" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>1220</v>
@@ -20988,7 +20988,7 @@
         <v>1219</v>
       </c>
       <c r="E85" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>1223</v>
@@ -21029,7 +21029,7 @@
         <v>1218</v>
       </c>
       <c r="E86" s="1">
-        <v>18.33</v>
+        <v>18.36</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>1220</v>
@@ -21073,7 +21073,7 @@
         <v>1219</v>
       </c>
       <c r="E87" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>1227</v>
@@ -21114,7 +21114,7 @@
         <v>1219</v>
       </c>
       <c r="E88" s="1">
-        <v>54.66</v>
+        <v>54.7</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>1223</v>
@@ -21155,7 +21155,7 @@
         <v>1218</v>
       </c>
       <c r="E89" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>1220</v>
@@ -21199,7 +21199,7 @@
         <v>1219</v>
       </c>
       <c r="E90" s="1">
-        <v>18.33</v>
+        <v>18.36</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>1222</v>
@@ -21240,7 +21240,7 @@
         <v>1218</v>
       </c>
       <c r="E91" s="1">
-        <v>18.33</v>
+        <v>18.36</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>1220</v>
@@ -21284,7 +21284,7 @@
         <v>1219</v>
       </c>
       <c r="E92" s="1">
-        <v>18.33</v>
+        <v>18.36</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>1225</v>
@@ -21325,7 +21325,7 @@
         <v>1219</v>
       </c>
       <c r="E93" s="1">
-        <v>18.33</v>
+        <v>18.36</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>1226</v>
@@ -21366,7 +21366,7 @@
         <v>1219</v>
       </c>
       <c r="E94" s="1">
-        <v>18.33</v>
+        <v>18.36</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>1223</v>
@@ -21407,7 +21407,7 @@
         <v>1219</v>
       </c>
       <c r="E95" s="1">
-        <v>18.33</v>
+        <v>18.36</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>1224</v>
@@ -21448,7 +21448,7 @@
         <v>1219</v>
       </c>
       <c r="E96" s="1">
-        <v>18.33</v>
+        <v>18.36</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>1223</v>
@@ -21489,7 +21489,7 @@
         <v>1219</v>
       </c>
       <c r="E97" s="1">
-        <v>18.33</v>
+        <v>18.36</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>1224</v>
@@ -21530,7 +21530,7 @@
         <v>1219</v>
       </c>
       <c r="E98" s="1">
-        <v>18.33</v>
+        <v>18.36</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>1222</v>
@@ -21571,7 +21571,7 @@
         <v>1219</v>
       </c>
       <c r="E99" s="1">
-        <v>18.33</v>
+        <v>18.36</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>1225</v>
@@ -21612,7 +21612,7 @@
         <v>1219</v>
       </c>
       <c r="E100" s="1">
-        <v>18.33</v>
+        <v>18.36</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>1221</v>
@@ -21653,7 +21653,7 @@
         <v>1219</v>
       </c>
       <c r="E101" s="1">
-        <v>18.33</v>
+        <v>18.36</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>1224</v>
@@ -21694,7 +21694,7 @@
         <v>1219</v>
       </c>
       <c r="E102" s="1">
-        <v>18.33</v>
+        <v>18.36</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>1226</v>
@@ -21735,7 +21735,7 @@
         <v>1219</v>
       </c>
       <c r="E103" s="1">
-        <v>18.33</v>
+        <v>18.36</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>1225</v>
@@ -21776,7 +21776,7 @@
         <v>1219</v>
       </c>
       <c r="E104" s="1">
-        <v>18.33</v>
+        <v>18.36</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>1222</v>
@@ -21817,7 +21817,7 @@
         <v>1219</v>
       </c>
       <c r="E105" s="1">
-        <v>18.33</v>
+        <v>18.36</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>1225</v>
@@ -21858,7 +21858,7 @@
         <v>1219</v>
       </c>
       <c r="E106" s="1">
-        <v>18.33</v>
+        <v>18.36</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>1224</v>
@@ -21899,7 +21899,7 @@
         <v>1219</v>
       </c>
       <c r="E107" s="1">
-        <v>18.33</v>
+        <v>18.36</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>1225</v>
@@ -21940,7 +21940,7 @@
         <v>1219</v>
       </c>
       <c r="E108" s="1">
-        <v>18.33</v>
+        <v>18.36</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>1227</v>
@@ -21981,7 +21981,7 @@
         <v>1219</v>
       </c>
       <c r="E109" s="1">
-        <v>17.87</v>
+        <v>17.9</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>1226</v>
@@ -22022,7 +22022,7 @@
         <v>1219</v>
       </c>
       <c r="E110" s="1">
-        <v>17.87</v>
+        <v>17.9</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>1223</v>
@@ -22063,7 +22063,7 @@
         <v>1219</v>
       </c>
       <c r="E111" s="1">
-        <v>17.87</v>
+        <v>17.9</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>1225</v>
@@ -22104,7 +22104,7 @@
         <v>1219</v>
       </c>
       <c r="E112" s="1">
-        <v>17.87</v>
+        <v>17.9</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>1227</v>
@@ -22145,7 +22145,7 @@
         <v>1219</v>
       </c>
       <c r="E113" s="1">
-        <v>17.87</v>
+        <v>17.9</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>1221</v>
@@ -22186,7 +22186,7 @@
         <v>1218</v>
       </c>
       <c r="E114" s="1">
-        <v>17.87</v>
+        <v>17.9</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>1220</v>
@@ -22230,7 +22230,7 @@
         <v>1219</v>
       </c>
       <c r="E115" s="1">
-        <v>17.87</v>
+        <v>17.9</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>1227</v>
@@ -22271,7 +22271,7 @@
         <v>1218</v>
       </c>
       <c r="E116" s="1">
-        <v>17.87</v>
+        <v>17.9</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>1220</v>
@@ -22315,7 +22315,7 @@
         <v>1219</v>
       </c>
       <c r="E117" s="1">
-        <v>17.87</v>
+        <v>17.9</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>1227</v>
@@ -22356,7 +22356,7 @@
         <v>1219</v>
       </c>
       <c r="E118" s="1">
-        <v>17.87</v>
+        <v>17.9</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>1222</v>
@@ -22397,7 +22397,7 @@
         <v>1219</v>
       </c>
       <c r="E119" s="1">
-        <v>17.87</v>
+        <v>17.9</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>1225</v>
@@ -22438,7 +22438,7 @@
         <v>1219</v>
       </c>
       <c r="E120" s="1">
-        <v>17.87</v>
+        <v>17.9</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>1226</v>
@@ -22479,7 +22479,7 @@
         <v>1218</v>
       </c>
       <c r="E121" s="1">
-        <v>17.87</v>
+        <v>17.9</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>1220</v>
@@ -22523,7 +22523,7 @@
         <v>1219</v>
       </c>
       <c r="E122" s="1">
-        <v>15.57</v>
+        <v>15.6</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>1227</v>
@@ -22564,7 +22564,7 @@
         <v>1218</v>
       </c>
       <c r="E123" s="1">
-        <v>17.87</v>
+        <v>17.9</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>1220</v>
@@ -22608,7 +22608,7 @@
         <v>1219</v>
       </c>
       <c r="E124" s="1">
-        <v>17.87</v>
+        <v>17.9</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>1223</v>
@@ -22649,7 +22649,7 @@
         <v>1219</v>
       </c>
       <c r="E125" s="1">
-        <v>17.87</v>
+        <v>17.9</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>1221</v>
@@ -22690,7 +22690,7 @@
         <v>1219</v>
       </c>
       <c r="E126" s="1">
-        <v>17.87</v>
+        <v>17.9</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>1226</v>
@@ -22731,7 +22731,7 @@
         <v>1219</v>
       </c>
       <c r="E127" s="1">
-        <v>17.87</v>
+        <v>17.9</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>1222</v>
@@ -22772,7 +22772,7 @@
         <v>1219</v>
       </c>
       <c r="E128" s="1">
-        <v>17.87</v>
+        <v>17.9</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>1227</v>
@@ -22813,7 +22813,7 @@
         <v>1219</v>
       </c>
       <c r="E129" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>1226</v>
@@ -22854,7 +22854,7 @@
         <v>1218</v>
       </c>
       <c r="E130" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>1220</v>
@@ -22898,7 +22898,7 @@
         <v>1219</v>
       </c>
       <c r="E131" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>1225</v>
@@ -22939,7 +22939,7 @@
         <v>1219</v>
       </c>
       <c r="E132" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>1225</v>
@@ -22980,7 +22980,7 @@
         <v>1219</v>
       </c>
       <c r="E133" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>1225</v>
@@ -23021,7 +23021,7 @@
         <v>1219</v>
       </c>
       <c r="E134" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>1225</v>
@@ -23062,7 +23062,7 @@
         <v>1219</v>
       </c>
       <c r="E135" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>1225</v>
@@ -23103,7 +23103,7 @@
         <v>1218</v>
       </c>
       <c r="E136" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>1220</v>
@@ -23147,7 +23147,7 @@
         <v>1219</v>
       </c>
       <c r="E137" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>1223</v>
@@ -23188,7 +23188,7 @@
         <v>1219</v>
       </c>
       <c r="E138" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>1224</v>
@@ -23229,7 +23229,7 @@
         <v>1219</v>
       </c>
       <c r="E139" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>1225</v>
@@ -23270,7 +23270,7 @@
         <v>1219</v>
       </c>
       <c r="E140" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>1227</v>
@@ -23311,7 +23311,7 @@
         <v>1219</v>
       </c>
       <c r="E141" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>1226</v>
@@ -23352,7 +23352,7 @@
         <v>1219</v>
       </c>
       <c r="E142" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>1223</v>
@@ -23393,7 +23393,7 @@
         <v>1219</v>
       </c>
       <c r="E143" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>1222</v>
@@ -23434,7 +23434,7 @@
         <v>1219</v>
       </c>
       <c r="E144" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>1226</v>
@@ -23475,7 +23475,7 @@
         <v>1219</v>
       </c>
       <c r="E145" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>1221</v>
@@ -23516,7 +23516,7 @@
         <v>1219</v>
       </c>
       <c r="E146" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>1223</v>
@@ -23557,7 +23557,7 @@
         <v>1219</v>
       </c>
       <c r="E147" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>1227</v>
@@ -23598,7 +23598,7 @@
         <v>1219</v>
       </c>
       <c r="E148" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>1222</v>
@@ -23639,7 +23639,7 @@
         <v>1218</v>
       </c>
       <c r="E149" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>1220</v>
@@ -23692,7 +23692,7 @@
         <v>1219</v>
       </c>
       <c r="E150" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>1226</v>
@@ -23733,7 +23733,7 @@
         <v>1219</v>
       </c>
       <c r="E151" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>1225</v>
@@ -23774,7 +23774,7 @@
         <v>1218</v>
       </c>
       <c r="E152" s="1">
-        <v>18.56</v>
+        <v>18.59</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>1220</v>
@@ -23818,7 +23818,7 @@
         <v>1219</v>
       </c>
       <c r="E153" s="1">
-        <v>51.91</v>
+        <v>51.94</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>1225</v>
@@ -23859,7 +23859,7 @@
         <v>1219</v>
       </c>
       <c r="E154" s="1">
-        <v>26.61</v>
+        <v>26.64</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>1221</v>
@@ -23900,7 +23900,7 @@
         <v>1218</v>
       </c>
       <c r="E155" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>1220</v>
@@ -23944,7 +23944,7 @@
         <v>1218</v>
       </c>
       <c r="E156" s="1">
-        <v>53.06</v>
+        <v>53.09</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>1220</v>
@@ -23988,7 +23988,7 @@
         <v>1218</v>
       </c>
       <c r="E157" s="1">
-        <v>20.86</v>
+        <v>20.89</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>1220</v>
@@ -24032,7 +24032,7 @@
         <v>1219</v>
       </c>
       <c r="E158" s="1">
-        <v>20.86</v>
+        <v>20.89</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>1221</v>
@@ -24073,7 +24073,7 @@
         <v>1218</v>
       </c>
       <c r="E159" s="1">
-        <v>23.62</v>
+        <v>23.65</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>1220</v>
@@ -24117,7 +24117,7 @@
         <v>1218</v>
       </c>
       <c r="E160" s="1">
-        <v>32.36</v>
+        <v>32.39</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>1220</v>
@@ -24170,7 +24170,7 @@
         <v>1219</v>
       </c>
       <c r="E161" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>1222</v>
@@ -24211,7 +24211,7 @@
         <v>1218</v>
       </c>
       <c r="E162" s="1">
-        <v>29.6</v>
+        <v>29.63</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>1220</v>
@@ -24261,7 +24261,7 @@
         <v>1218</v>
       </c>
       <c r="E163" s="1">
-        <v>50.99</v>
+        <v>51.02</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>1220</v>
@@ -24305,7 +24305,7 @@
         <v>1218</v>
       </c>
       <c r="E164" s="1">
-        <v>20.86</v>
+        <v>20.89</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>1220</v>
@@ -24349,7 +24349,7 @@
         <v>1219</v>
       </c>
       <c r="E165" s="1">
-        <v>23.62</v>
+        <v>23.65</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>1221</v>
@@ -24390,7 +24390,7 @@
         <v>1219</v>
       </c>
       <c r="E166" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>1224</v>
@@ -24431,7 +24431,7 @@
         <v>1218</v>
       </c>
       <c r="E167" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>1220</v>
@@ -24475,7 +24475,7 @@
         <v>1218</v>
       </c>
       <c r="E168" s="1">
-        <v>49.15</v>
+        <v>49.18</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>1220</v>
@@ -24528,7 +24528,7 @@
         <v>1218</v>
       </c>
       <c r="E169" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>1220</v>
@@ -24572,7 +24572,7 @@
         <v>1219</v>
       </c>
       <c r="E170" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>1223</v>
@@ -24613,7 +24613,7 @@
         <v>1219</v>
       </c>
       <c r="E171" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>1225</v>
@@ -24654,7 +24654,7 @@
         <v>1219</v>
       </c>
       <c r="E172" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>1228</v>
@@ -24695,7 +24695,7 @@
         <v>1219</v>
       </c>
       <c r="E173" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>1226</v>
@@ -24736,7 +24736,7 @@
         <v>1219</v>
       </c>
       <c r="E174" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>1221</v>
@@ -24777,7 +24777,7 @@
         <v>1219</v>
       </c>
       <c r="E175" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>1222</v>
@@ -24818,7 +24818,7 @@
         <v>1219</v>
       </c>
       <c r="E176" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>1227</v>
@@ -24859,7 +24859,7 @@
         <v>1218</v>
       </c>
       <c r="E177" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>1220</v>
@@ -24903,7 +24903,7 @@
         <v>1219</v>
       </c>
       <c r="E178" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>1222</v>
@@ -24944,7 +24944,7 @@
         <v>1218</v>
       </c>
       <c r="E179" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>1220</v>
@@ -24988,7 +24988,7 @@
         <v>1218</v>
       </c>
       <c r="E180" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>1220</v>
@@ -25032,7 +25032,7 @@
         <v>1218</v>
       </c>
       <c r="E181" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>1220</v>
@@ -25076,7 +25076,7 @@
         <v>1219</v>
       </c>
       <c r="E182" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>1222</v>
@@ -25117,7 +25117,7 @@
         <v>1219</v>
       </c>
       <c r="E183" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>1225</v>
@@ -25158,7 +25158,7 @@
         <v>1219</v>
       </c>
       <c r="E184" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>1226</v>
@@ -25199,7 +25199,7 @@
         <v>1218</v>
       </c>
       <c r="E185" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>1220</v>
@@ -25243,7 +25243,7 @@
         <v>1219</v>
       </c>
       <c r="E186" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>1226</v>
@@ -25284,7 +25284,7 @@
         <v>1219</v>
       </c>
       <c r="E187" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>1225</v>
@@ -25325,7 +25325,7 @@
         <v>1219</v>
       </c>
       <c r="E188" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>1227</v>
@@ -25366,7 +25366,7 @@
         <v>1219</v>
       </c>
       <c r="E189" s="1">
-        <v>29.6</v>
+        <v>29.63</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>1221</v>
@@ -25407,7 +25407,7 @@
         <v>1219</v>
       </c>
       <c r="E190" s="1">
-        <v>32.59</v>
+        <v>32.62</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>1225</v>
@@ -25457,7 +25457,7 @@
         <v>1218</v>
       </c>
       <c r="E191" s="1">
-        <v>34.89</v>
+        <v>34.92</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>1220</v>
@@ -25510,7 +25510,7 @@
         <v>1219</v>
       </c>
       <c r="E192" s="1">
-        <v>23.62</v>
+        <v>23.65</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>1221</v>
@@ -25551,7 +25551,7 @@
         <v>1218</v>
       </c>
       <c r="E193" s="1">
-        <v>30.06</v>
+        <v>30.09</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>1220</v>
@@ -25604,7 +25604,7 @@
         <v>1218</v>
       </c>
       <c r="E194" s="1">
-        <v>42.25</v>
+        <v>42.28</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>1220</v>
@@ -25648,7 +25648,7 @@
         <v>1218</v>
       </c>
       <c r="E195" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>1220</v>
@@ -25692,7 +25692,7 @@
         <v>1218</v>
       </c>
       <c r="E196" s="1">
-        <v>29.6</v>
+        <v>29.63</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>1220</v>
@@ -25736,7 +25736,7 @@
         <v>1218</v>
       </c>
       <c r="E197" s="1">
-        <v>45.01</v>
+        <v>45.04</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>1220</v>
@@ -25789,7 +25789,7 @@
         <v>1219</v>
       </c>
       <c r="E198" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>1227</v>
@@ -25830,7 +25830,7 @@
         <v>1218</v>
       </c>
       <c r="E199" s="1">
-        <v>32.59</v>
+        <v>32.62</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>1220</v>
@@ -25883,7 +25883,7 @@
         <v>1218</v>
       </c>
       <c r="E200" s="1">
-        <v>40.87</v>
+        <v>40.9</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>1220</v>
@@ -25927,7 +25927,7 @@
         <v>1219</v>
       </c>
       <c r="E201" s="1">
-        <v>23.62</v>
+        <v>23.65</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>1223</v>
@@ -25968,7 +25968,7 @@
         <v>1219</v>
       </c>
       <c r="E202" s="1">
-        <v>42.25</v>
+        <v>42.28</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>1224</v>
@@ -26009,7 +26009,7 @@
         <v>1219</v>
       </c>
       <c r="E203" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>1224</v>
@@ -26050,7 +26050,7 @@
         <v>1218</v>
       </c>
       <c r="E204" s="1">
-        <v>26.61</v>
+        <v>26.64</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>1220</v>
@@ -26103,7 +26103,7 @@
         <v>1219</v>
       </c>
       <c r="E205" s="1">
-        <v>23.62</v>
+        <v>23.65</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>1221</v>
@@ -26144,7 +26144,7 @@
         <v>1218</v>
       </c>
       <c r="E206" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>1220</v>
@@ -26188,7 +26188,7 @@
         <v>1218</v>
       </c>
       <c r="E207" s="1">
-        <v>34.89</v>
+        <v>34.92</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>1220</v>
@@ -26238,7 +26238,7 @@
         <v>1218</v>
       </c>
       <c r="E208" s="1">
-        <v>34.89</v>
+        <v>34.92</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>1220</v>
@@ -26291,7 +26291,7 @@
         <v>1219</v>
       </c>
       <c r="E209" s="1">
-        <v>20.86</v>
+        <v>20.89</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>1223</v>
@@ -26332,7 +26332,7 @@
         <v>1218</v>
       </c>
       <c r="E210" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>1220</v>
@@ -26376,7 +26376,7 @@
         <v>1218</v>
       </c>
       <c r="E211" s="1">
-        <v>32.59</v>
+        <v>32.62</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>1220</v>
@@ -26426,7 +26426,7 @@
         <v>1219</v>
       </c>
       <c r="E212" s="1">
-        <v>77.66</v>
+        <v>77.69</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>1227</v>
@@ -26467,7 +26467,7 @@
         <v>1218</v>
       </c>
       <c r="E213" s="1">
-        <v>23.62</v>
+        <v>23.65</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>1220</v>
@@ -26511,7 +26511,7 @@
         <v>1219</v>
       </c>
       <c r="E214" s="1">
-        <v>47.31</v>
+        <v>47.34</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>1224</v>
@@ -26552,7 +26552,7 @@
         <v>1218</v>
       </c>
       <c r="E215" s="1">
-        <v>32.36</v>
+        <v>32.39</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>1220</v>
@@ -26605,7 +26605,7 @@
         <v>1219</v>
       </c>
       <c r="E216" s="1">
-        <v>42.25</v>
+        <v>42.28</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>1225</v>
@@ -26646,7 +26646,7 @@
         <v>1218</v>
       </c>
       <c r="E217" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>1220</v>
@@ -26690,7 +26690,7 @@
         <v>1218</v>
       </c>
       <c r="E218" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>1220</v>
@@ -26734,7 +26734,7 @@
         <v>1219</v>
       </c>
       <c r="E219" s="1">
-        <v>29.6</v>
+        <v>29.63</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>1227</v>
@@ -26775,7 +26775,7 @@
         <v>1219</v>
       </c>
       <c r="E220" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>1224</v>
@@ -26816,7 +26816,7 @@
         <v>1219</v>
       </c>
       <c r="E221" s="1">
-        <v>30.06</v>
+        <v>30.09</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>1228</v>
@@ -26857,7 +26857,7 @@
         <v>1219</v>
       </c>
       <c r="E222" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>1225</v>
@@ -26898,7 +26898,7 @@
         <v>1218</v>
       </c>
       <c r="E223" s="1">
-        <v>49.15</v>
+        <v>49.18</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>1220</v>
@@ -26951,7 +26951,7 @@
         <v>1219</v>
       </c>
       <c r="E224" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>1225</v>
@@ -26992,7 +26992,7 @@
         <v>1218</v>
       </c>
       <c r="E225" s="1">
-        <v>59.72</v>
+        <v>59.76</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>1220</v>
@@ -27039,7 +27039,7 @@
         <v>1218</v>
       </c>
       <c r="E226" s="1">
-        <v>34.89</v>
+        <v>34.92</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>1220</v>
@@ -27083,7 +27083,7 @@
         <v>1218</v>
       </c>
       <c r="E227" s="1">
-        <v>29.6</v>
+        <v>29.63</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>1220</v>
@@ -27136,7 +27136,7 @@
         <v>1218</v>
       </c>
       <c r="E228" s="1">
-        <v>26.61</v>
+        <v>26.64</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>1220</v>
@@ -27180,7 +27180,7 @@
         <v>1218</v>
       </c>
       <c r="E229" s="1">
-        <v>39.59</v>
+        <v>39.62</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>1220</v>
@@ -27233,7 +27233,7 @@
         <v>1218</v>
       </c>
       <c r="E230" s="1">
-        <v>32.59</v>
+        <v>32.62</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>1220</v>
@@ -27286,7 +27286,7 @@
         <v>1218</v>
       </c>
       <c r="E231" s="1">
-        <v>39.59</v>
+        <v>39.62</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>1220</v>
@@ -27330,7 +27330,7 @@
         <v>1219</v>
       </c>
       <c r="E232" s="1">
-        <v>29.6</v>
+        <v>29.63</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>1223</v>
@@ -27371,7 +27371,7 @@
         <v>1218</v>
       </c>
       <c r="E233" s="1">
-        <v>42.25</v>
+        <v>42.28</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>1220</v>
@@ -27424,7 +27424,7 @@
         <v>1218</v>
       </c>
       <c r="E234" s="1">
-        <v>32.59</v>
+        <v>32.62</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>1220</v>
@@ -27477,7 +27477,7 @@
         <v>1218</v>
       </c>
       <c r="E235" s="1">
-        <v>29.6</v>
+        <v>29.63</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>1220</v>
@@ -27521,7 +27521,7 @@
         <v>1218</v>
       </c>
       <c r="E236" s="1">
-        <v>45.01</v>
+        <v>45.04</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>1220</v>
@@ -27574,7 +27574,7 @@
         <v>1218</v>
       </c>
       <c r="E237" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>1220</v>
@@ -27618,7 +27618,7 @@
         <v>1219</v>
       </c>
       <c r="E238" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>1226</v>
@@ -27659,7 +27659,7 @@
         <v>1218</v>
       </c>
       <c r="E239" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>1220</v>
@@ -27703,7 +27703,7 @@
         <v>1219</v>
       </c>
       <c r="E240" s="1">
-        <v>9.66</v>
+        <v>9.69</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>1227</v>
@@ -27744,7 +27744,7 @@
         <v>1219</v>
       </c>
       <c r="E241" s="1">
-        <v>61.33</v>
+        <v>61.37</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>1221</v>
@@ -27785,7 +27785,7 @@
         <v>1218</v>
       </c>
       <c r="E242" s="1">
-        <v>35.58</v>
+        <v>35.61</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>1220</v>
@@ -27838,7 +27838,7 @@
         <v>1219</v>
       </c>
       <c r="E243" s="1">
-        <v>63.17</v>
+        <v>63.21</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>1223</v>
@@ -27879,7 +27879,7 @@
         <v>1219</v>
       </c>
       <c r="E244" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>1226</v>
@@ -27920,7 +27920,7 @@
         <v>1218</v>
       </c>
       <c r="E245" s="1">
-        <v>30.06</v>
+        <v>30.09</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>1220</v>
@@ -27973,7 +27973,7 @@
         <v>1219</v>
       </c>
       <c r="E246" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>1224</v>
@@ -28014,7 +28014,7 @@
         <v>1218</v>
       </c>
       <c r="E247" s="1">
-        <v>35.58</v>
+        <v>35.61</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>1220</v>
@@ -28067,7 +28067,7 @@
         <v>1219</v>
       </c>
       <c r="E248" s="1">
-        <v>48.92</v>
+        <v>48.95</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>1223</v>
@@ -28108,7 +28108,7 @@
         <v>1219</v>
       </c>
       <c r="E249" s="1">
-        <v>39.59</v>
+        <v>39.62</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>1225</v>
@@ -28149,7 +28149,7 @@
         <v>1219</v>
       </c>
       <c r="E250" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>1223</v>
@@ -28190,7 +28190,7 @@
         <v>1219</v>
       </c>
       <c r="E251" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>1226</v>
@@ -28231,7 +28231,7 @@
         <v>1218</v>
       </c>
       <c r="E252" s="1">
-        <v>42.25</v>
+        <v>42.28</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>1220</v>
@@ -28284,7 +28284,7 @@
         <v>1219</v>
       </c>
       <c r="E253" s="1">
-        <v>30.06</v>
+        <v>30.09</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>1223</v>
@@ -28325,7 +28325,7 @@
         <v>1218</v>
       </c>
       <c r="E254" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>1220</v>
@@ -28378,7 +28378,7 @@
         <v>1218</v>
       </c>
       <c r="E255" s="1">
-        <v>47.31</v>
+        <v>47.34</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>1220</v>
@@ -28422,7 +28422,7 @@
         <v>1218</v>
       </c>
       <c r="E256" s="1">
-        <v>30.06</v>
+        <v>30.09</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>1220</v>
@@ -28475,7 +28475,7 @@
         <v>1219</v>
       </c>
       <c r="E257" s="1">
-        <v>53.06</v>
+        <v>53.09</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>1221</v>
@@ -28516,7 +28516,7 @@
         <v>1218</v>
       </c>
       <c r="E258" s="1">
-        <v>45.01</v>
+        <v>45.04</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>1220</v>
@@ -28569,7 +28569,7 @@
         <v>1219</v>
       </c>
       <c r="E259" s="1">
-        <v>30.06</v>
+        <v>30.09</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>1226</v>
@@ -28610,7 +28610,7 @@
         <v>1218</v>
       </c>
       <c r="E260" s="1">
-        <v>30.06</v>
+        <v>30.09</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>1220</v>
@@ -28663,7 +28663,7 @@
         <v>1219</v>
       </c>
       <c r="E261" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>1228</v>
@@ -28704,7 +28704,7 @@
         <v>1218</v>
       </c>
       <c r="E262" s="1">
-        <v>45.01</v>
+        <v>45.04</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>1220</v>
@@ -28757,7 +28757,7 @@
         <v>1218</v>
       </c>
       <c r="E263" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>1220</v>
@@ -28810,7 +28810,7 @@
         <v>1219</v>
       </c>
       <c r="E264" s="1">
-        <v>32.59</v>
+        <v>32.62</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>1224</v>
@@ -28851,7 +28851,7 @@
         <v>1218</v>
       </c>
       <c r="E265" s="1">
-        <v>47.31</v>
+        <v>47.34</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>1220</v>
@@ -28895,7 +28895,7 @@
         <v>1219</v>
       </c>
       <c r="E266" s="1">
-        <v>45.01</v>
+        <v>45.04</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>1226</v>
@@ -28936,7 +28936,7 @@
         <v>1219</v>
       </c>
       <c r="E267" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>1222</v>
@@ -28977,7 +28977,7 @@
         <v>1218</v>
       </c>
       <c r="E268" s="1">
-        <v>54.66</v>
+        <v>54.7</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>1220</v>
@@ -29024,7 +29024,7 @@
         <v>1218</v>
       </c>
       <c r="E269" s="1">
-        <v>48.92</v>
+        <v>48.95</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>1220</v>
@@ -29077,7 +29077,7 @@
         <v>1218</v>
       </c>
       <c r="E270" s="1">
-        <v>63.17</v>
+        <v>63.21</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>1220</v>
@@ -29121,7 +29121,7 @@
         <v>1219</v>
       </c>
       <c r="E271" s="1">
-        <v>42.25</v>
+        <v>42.28</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>1224</v>
@@ -29162,7 +29162,7 @@
         <v>1219</v>
       </c>
       <c r="E272" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>1223</v>
@@ -29203,7 +29203,7 @@
         <v>1219</v>
       </c>
       <c r="E273" s="1">
-        <v>35.58</v>
+        <v>35.61</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>1228</v>
@@ -29244,7 +29244,7 @@
         <v>1218</v>
       </c>
       <c r="E274" s="1">
-        <v>32.36</v>
+        <v>32.39</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>1220</v>
@@ -29294,7 +29294,7 @@
         <v>1219</v>
       </c>
       <c r="E275" s="1">
-        <v>32.59</v>
+        <v>32.62</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>1224</v>
@@ -29335,7 +29335,7 @@
         <v>1218</v>
       </c>
       <c r="E276" s="1">
-        <v>29.6</v>
+        <v>29.63</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>1220</v>
@@ -29379,7 +29379,7 @@
         <v>1219</v>
       </c>
       <c r="E277" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>1223</v>
@@ -29420,7 +29420,7 @@
         <v>1218</v>
       </c>
       <c r="E278" s="1">
-        <v>32.59</v>
+        <v>32.62</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>1220</v>
@@ -29464,7 +29464,7 @@
         <v>1218</v>
       </c>
       <c r="E279" s="1">
-        <v>45.01</v>
+        <v>45.04</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>1220</v>
@@ -29517,7 +29517,7 @@
         <v>1219</v>
       </c>
       <c r="E280" s="1">
-        <v>56.5</v>
+        <v>56.54</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>1224</v>
@@ -29558,7 +29558,7 @@
         <v>1218</v>
       </c>
       <c r="E281" s="1">
-        <v>50.99</v>
+        <v>51.02</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>1220</v>
@@ -29602,7 +29602,7 @@
         <v>1218</v>
       </c>
       <c r="E282" s="1">
-        <v>32.36</v>
+        <v>32.39</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>1220</v>
@@ -29646,7 +29646,7 @@
         <v>1219</v>
       </c>
       <c r="E283" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>1229</v>
@@ -29687,7 +29687,7 @@
         <v>1219</v>
       </c>
       <c r="E284" s="1">
-        <v>29.6</v>
+        <v>29.63</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>1224</v>
@@ -29728,7 +29728,7 @@
         <v>1218</v>
       </c>
       <c r="E285" s="1">
-        <v>29.6</v>
+        <v>29.63</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>1220</v>
@@ -29781,7 +29781,7 @@
         <v>1219</v>
       </c>
       <c r="E286" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>1222</v>
@@ -29822,7 +29822,7 @@
         <v>1218</v>
       </c>
       <c r="E287" s="1">
-        <v>39.59</v>
+        <v>39.62</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>1220</v>
@@ -29875,7 +29875,7 @@
         <v>1219</v>
       </c>
       <c r="E288" s="1">
-        <v>29.6</v>
+        <v>29.63</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>1224</v>
@@ -29916,7 +29916,7 @@
         <v>1219</v>
       </c>
       <c r="E289" s="1">
-        <v>42.25</v>
+        <v>42.28</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>1224</v>
@@ -29957,7 +29957,7 @@
         <v>1218</v>
       </c>
       <c r="E290" s="1">
-        <v>29.6</v>
+        <v>29.63</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>1220</v>
@@ -30007,7 +30007,7 @@
         <v>1219</v>
       </c>
       <c r="E291" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>1222</v>
@@ -30048,7 +30048,7 @@
         <v>1219</v>
       </c>
       <c r="E292" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>1223</v>
@@ -30089,7 +30089,7 @@
         <v>1218</v>
       </c>
       <c r="E293" s="1">
-        <v>50.99</v>
+        <v>51.02</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>1220</v>
@@ -30133,7 +30133,7 @@
         <v>1218</v>
       </c>
       <c r="E294" s="1">
-        <v>35.58</v>
+        <v>35.61</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>1220</v>
@@ -30186,7 +30186,7 @@
         <v>1219</v>
       </c>
       <c r="E295" s="1">
-        <v>45.01</v>
+        <v>45.04</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>1224</v>
@@ -30227,7 +30227,7 @@
         <v>1218</v>
       </c>
       <c r="E296" s="1">
-        <v>26.84</v>
+        <v>26.87</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>1220</v>
@@ -30280,7 +30280,7 @@
         <v>1218</v>
       </c>
       <c r="E297" s="1">
-        <v>49.15</v>
+        <v>49.18</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>1220</v>
@@ -30333,7 +30333,7 @@
         <v>1219</v>
       </c>
       <c r="E298" s="1">
-        <v>39.59</v>
+        <v>39.62</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>1226</v>
@@ -30374,7 +30374,7 @@
         <v>1219</v>
       </c>
       <c r="E299" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>1222</v>
@@ -30415,7 +30415,7 @@
         <v>1218</v>
       </c>
       <c r="E300" s="1">
-        <v>29.6</v>
+        <v>29.63</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>1220</v>
@@ -30468,7 +30468,7 @@
         <v>1219</v>
       </c>
       <c r="E301" s="1">
-        <v>48.92</v>
+        <v>48.95</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>1224</v>
@@ -30509,7 +30509,7 @@
         <v>1218</v>
       </c>
       <c r="E302" s="1">
-        <v>34.89</v>
+        <v>34.92</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>1220</v>
@@ -30556,7 +30556,7 @@
         <v>1219</v>
       </c>
       <c r="E303" s="1">
-        <v>63.17</v>
+        <v>63.21</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>1225</v>
@@ -30597,7 +30597,7 @@
         <v>1219</v>
       </c>
       <c r="E304" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>1222</v>
@@ -30638,7 +30638,7 @@
         <v>1218</v>
       </c>
       <c r="E305" s="1">
-        <v>39.59</v>
+        <v>39.62</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>1220</v>
@@ -30682,7 +30682,7 @@
         <v>1218</v>
       </c>
       <c r="E306" s="1">
-        <v>29.6</v>
+        <v>29.63</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>1220</v>
@@ -30726,7 +30726,7 @@
         <v>1218</v>
       </c>
       <c r="E307" s="1">
-        <v>32.59</v>
+        <v>32.62</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>1220</v>
@@ -30770,7 +30770,7 @@
         <v>1219</v>
       </c>
       <c r="E308" s="1">
-        <v>32.59</v>
+        <v>32.62</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>1223</v>
@@ -30811,7 +30811,7 @@
         <v>1218</v>
       </c>
       <c r="E309" s="1">
-        <v>24.31</v>
+        <v>24.34</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>1220</v>
@@ -30855,7 +30855,7 @@
         <v>1218</v>
       </c>
       <c r="E310" s="1">
-        <v>53.98</v>
+        <v>54.01</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>1220</v>
@@ -30908,7 +30908,7 @@
         <v>1219</v>
       </c>
       <c r="E311" s="1">
-        <v>30.06</v>
+        <v>30.09</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>1222</v>
@@ -30949,7 +30949,7 @@
         <v>1218</v>
       </c>
       <c r="E312" s="1">
-        <v>29.6</v>
+        <v>29.63</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>1220</v>
@@ -31002,7 +31002,7 @@
         <v>1219</v>
       </c>
       <c r="E313" s="1">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>1228</v>
@@ -31043,7 +31043,7 @@
         <v>1219</v>
       </c>
       <c r="E314" s="1">
-        <v>32.59</v>
+        <v>32.62</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>1223</v>
@@ -31084,7 +31084,7 @@
         <v>1218</v>
       </c>
       <c r="E315" s="1">
-        <v>30.06</v>
+        <v>30.09</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>1220</v>
@@ -31128,7 +31128,7 @@
         <v>1219</v>
       </c>
       <c r="E316" s="1">
-        <v>49.15</v>
+        <v>49.18</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>1224</v>
@@ -31169,7 +31169,7 @@
         <v>1219</v>
       </c>
       <c r="E317" s="1">
-        <v>42.25</v>
+        <v>42.28</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>1224</v>
@@ -31210,7 +31210,7 @@
         <v>1219</v>
       </c>
       <c r="E318" s="1">
-        <v>26.61</v>
+        <v>26.64</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>1224</v>
@@ -31251,7 +31251,7 @@
         <v>1218</v>
       </c>
       <c r="E319" s="1">
-        <v>20.86</v>
+        <v>20.89</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>1220</v>
@@ -31295,7 +31295,7 @@
         <v>1219</v>
       </c>
       <c r="E320" s="1">
-        <v>20.86</v>
+        <v>20.89</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>1227</v>
@@ -31336,7 +31336,7 @@
         <v>1219</v>
       </c>
       <c r="E321" s="1">
-        <v>20.86</v>
+        <v>20.89</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>1227</v>
@@ -31377,7 +31377,7 @@
         <v>1219</v>
       </c>
       <c r="E322" s="1">
-        <v>20.86</v>
+        <v>20.89</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>1222</v>
@@ -31418,7 +31418,7 @@
         <v>1218</v>
       </c>
       <c r="E323" s="1">
-        <v>20.86</v>
+        <v>20.89</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>1220</v>
@@ -31462,7 +31462,7 @@
         <v>1219</v>
       </c>
       <c r="E324" s="1">
-        <v>20.86</v>
+        <v>20.89</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>1227</v>
@@ -31503,7 +31503,7 @@
         <v>1218</v>
       </c>
       <c r="E325" s="1">
-        <v>26.61</v>
+        <v>26.64</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>1220</v>
@@ -31547,7 +31547,7 @@
         <v>1219</v>
       </c>
       <c r="E326" s="1">
-        <v>26.61</v>
+        <v>26.64</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>1221</v>
@@ -31588,7 +31588,7 @@
         <v>1219</v>
       </c>
       <c r="E327" s="1">
-        <v>26.61</v>
+        <v>26.64</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>1224</v>
@@ -31629,7 +31629,7 @@
         <v>1219</v>
       </c>
       <c r="E328" s="1">
-        <v>23.62</v>
+        <v>23.65</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>1222</v>
@@ -31670,7 +31670,7 @@
         <v>1219</v>
       </c>
       <c r="E329" s="1">
-        <v>26.61</v>
+        <v>26.64</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>1227</v>
@@ -31711,7 +31711,7 @@
         <v>1219</v>
       </c>
       <c r="E330" s="1">
-        <v>23.62</v>
+        <v>23.65</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>1227</v>
@@ -31752,7 +31752,7 @@
         <v>1219</v>
       </c>
       <c r="E331" s="1">
-        <v>26.61</v>
+        <v>26.64</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>1227</v>
@@ -31793,7 +31793,7 @@
         <v>1219</v>
       </c>
       <c r="E332" s="1">
-        <v>26.61</v>
+        <v>26.64</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>1224</v>
@@ -31834,7 +31834,7 @@
         <v>1218</v>
       </c>
       <c r="E333" s="1">
-        <v>23.62</v>
+        <v>23.65</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>1220</v>
@@ -31878,7 +31878,7 @@
         <v>1219</v>
       </c>
       <c r="E334" s="1">
-        <v>23.62</v>
+        <v>23.65</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>1226</v>
@@ -31919,7 +31919,7 @@
         <v>1218</v>
       </c>
       <c r="E335" s="1">
-        <v>23.62</v>
+        <v>23.65</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>1220</v>
@@ -31963,7 +31963,7 @@
         <v>1219</v>
       </c>
       <c r="E336" s="1">
-        <v>26.61</v>
+        <v>26.64</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>1225</v>
@@ -32004,7 +32004,7 @@
         <v>1219</v>
       </c>
       <c r="E337" s="1">
-        <v>26.61</v>
+        <v>26.64</v>
       </c>
       <c r="F337" s="1" t="s">
         <v>1221</v>
@@ -32045,7 +32045,7 @@
         <v>1219</v>
       </c>
       <c r="E338" s="1">
-        <v>26.61</v>
+        <v>26.64</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>1222</v>
@@ -32086,7 +32086,7 @@
         <v>1218</v>
       </c>
       <c r="E339" s="1">
-        <v>26.61</v>
+        <v>26.64</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>1220</v>
@@ -32139,7 +32139,7 @@
         <v>1219</v>
       </c>
       <c r="E340" s="1">
-        <v>23.62</v>
+        <v>23.65</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>1227</v>
@@ -32180,7 +32180,7 @@
         <v>1219</v>
       </c>
       <c r="E341" s="1">
-        <v>23.62</v>
+        <v>23.65</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>1227</v>
@@ -32221,7 +32221,7 @@
         <v>1219</v>
       </c>
       <c r="E342" s="1">
-        <v>26.61</v>
+        <v>26.64</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>1223</v>
@@ -32262,7 +32262,7 @@
         <v>1218</v>
       </c>
       <c r="E343" s="1">
-        <v>30.06</v>
+        <v>30.09</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>1220</v>
@@ -32306,7 +32306,7 @@
         <v>1219</v>
       </c>
       <c r="E344" s="1">
-        <v>40.87</v>
+        <v>40.9</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>1228</v>
@@ -32347,7 +32347,7 @@
         <v>1219</v>
       </c>
       <c r="E345" s="1">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>1221</v>
@@ -32388,7 +32388,7 @@
         <v>1219</v>
       </c>
       <c r="E346" s="1">
-        <v>13.73</v>
+        <v>13.76</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>1225</v>
@@ -32429,7 +32429,7 @@
         <v>1219</v>
       </c>
       <c r="E347" s="1">
-        <v>15.57</v>
+        <v>15.6</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>1225</v>
@@ -32470,7 +32470,7 @@
         <v>1219</v>
       </c>
       <c r="E348" s="1">
-        <v>15.57</v>
+        <v>15.6</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>1226</v>
@@ -32511,7 +32511,7 @@
         <v>1219</v>
       </c>
       <c r="E349" s="1">
-        <v>15.57</v>
+        <v>15.6</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>1222</v>
@@ -32552,7 +32552,7 @@
         <v>1219</v>
       </c>
       <c r="E350" s="1">
-        <v>15.57</v>
+        <v>15.6</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>1224</v>
@@ -32593,7 +32593,7 @@
         <v>1219</v>
       </c>
       <c r="E351" s="1">
-        <v>15.57</v>
+        <v>15.6</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>1226</v>
@@ -32634,7 +32634,7 @@
         <v>1219</v>
       </c>
       <c r="E352" s="1">
-        <v>15.57</v>
+        <v>15.6</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>1222</v>
@@ -32675,7 +32675,7 @@
         <v>1218</v>
       </c>
       <c r="E353" s="1">
-        <v>15.57</v>
+        <v>15.6</v>
       </c>
       <c r="F353" s="1" t="s">
         <v>1220</v>
@@ -32719,7 +32719,7 @@
         <v>1218</v>
       </c>
       <c r="E354" s="1">
-        <v>15.57</v>
+        <v>15.6</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>1220</v>
@@ -32763,7 +32763,7 @@
         <v>1219</v>
       </c>
       <c r="E355" s="1">
-        <v>15.57</v>
+        <v>15.6</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>1224</v>
@@ -32804,7 +32804,7 @@
         <v>1219</v>
       </c>
       <c r="E356" s="1">
-        <v>15.57</v>
+        <v>15.6</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>1224</v>
@@ -32845,7 +32845,7 @@
         <v>1219</v>
       </c>
       <c r="E357" s="1">
-        <v>15.57</v>
+        <v>15.6</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>1227</v>
@@ -32886,7 +32886,7 @@
         <v>1219</v>
       </c>
       <c r="E358" s="1">
-        <v>15.57</v>
+        <v>15.6</v>
       </c>
       <c r="F358" s="1" t="s">
         <v>1222</v>
@@ -32927,7 +32927,7 @@
         <v>1218</v>
       </c>
       <c r="E359" s="1">
-        <v>15.57</v>
+        <v>15.6</v>
       </c>
       <c r="F359" s="1" t="s">
         <v>1220</v>
@@ -32971,7 +32971,7 @@
         <v>1218</v>
       </c>
       <c r="E360" s="1">
-        <v>51.91</v>
+        <v>51.94</v>
       </c>
       <c r="F360" s="1" t="s">
         <v>1220</v>
@@ -33015,7 +33015,7 @@
         <v>1219</v>
       </c>
       <c r="E361" s="1">
-        <v>111.01</v>
+        <v>111.04</v>
       </c>
       <c r="F361" s="1" t="s">
         <v>1221</v>
@@ -33097,7 +33097,7 @@
         <v>1218</v>
       </c>
       <c r="E363" s="1">
-        <v>32.36</v>
+        <v>32.39</v>
       </c>
       <c r="F363" s="1" t="s">
         <v>1220</v>
@@ -33150,7 +33150,7 @@
         <v>1219</v>
       </c>
       <c r="E364" s="1">
-        <v>40.87</v>
+        <v>40.9</v>
       </c>
       <c r="F364" s="1" t="s">
         <v>1221</v>
@@ -33191,7 +33191,7 @@
         <v>1218</v>
       </c>
       <c r="E365" s="1">
-        <v>75.13</v>
+        <v>75.16</v>
       </c>
       <c r="F365" s="1" t="s">
         <v>1220</v>
@@ -33244,7 +33244,7 @@
         <v>1219</v>
       </c>
       <c r="E366" s="1">
-        <v>71.22</v>
+        <v>71.25</v>
       </c>
       <c r="F366" s="1" t="s">
         <v>1221</v>
@@ -33285,7 +33285,7 @@
         <v>1219</v>
       </c>
       <c r="E367" s="1">
-        <v>40.87</v>
+        <v>40.9</v>
       </c>
       <c r="F367" s="1" t="s">
         <v>1225</v>
@@ -33326,7 +33326,7 @@
         <v>1219</v>
       </c>
       <c r="E368" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F368" s="1" t="s">
         <v>1230</v>
@@ -33367,7 +33367,7 @@
         <v>1219</v>
       </c>
       <c r="E369" s="1">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="F369" s="1" t="s">
         <v>1224</v>
@@ -33408,7 +33408,7 @@
         <v>1218</v>
       </c>
       <c r="E370" s="1">
-        <v>15.57</v>
+        <v>15.6</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>1220</v>
@@ -33452,7 +33452,7 @@
         <v>1219</v>
       </c>
       <c r="E371" s="1">
-        <v>15.57</v>
+        <v>15.6</v>
       </c>
       <c r="F371" s="1" t="s">
         <v>1224</v>
@@ -33493,7 +33493,7 @@
         <v>1219</v>
       </c>
       <c r="E372" s="1">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>1229</v>
@@ -33534,7 +33534,7 @@
         <v>1219</v>
       </c>
       <c r="E373" s="1">
-        <v>13.73</v>
+        <v>13.76</v>
       </c>
       <c r="F373" s="1" t="s">
         <v>1226</v>
@@ -33575,7 +33575,7 @@
         <v>1219</v>
       </c>
       <c r="E374" s="1">
-        <v>13.73</v>
+        <v>13.76</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>1229</v>
@@ -33616,7 +33616,7 @@
         <v>1219</v>
       </c>
       <c r="E375" s="1">
-        <v>13.73</v>
+        <v>13.76</v>
       </c>
       <c r="F375" s="1" t="s">
         <v>1226</v>
@@ -33657,7 +33657,7 @@
         <v>1219</v>
       </c>
       <c r="E376" s="1">
-        <v>13.73</v>
+        <v>13.76</v>
       </c>
       <c r="F376" s="1" t="s">
         <v>1223</v>
@@ -33698,7 +33698,7 @@
         <v>1219</v>
       </c>
       <c r="E377" s="1">
-        <v>13.73</v>
+        <v>13.76</v>
       </c>
       <c r="F377" s="1" t="s">
         <v>1227</v>
@@ -33739,7 +33739,7 @@
         <v>1219</v>
       </c>
       <c r="E378" s="1">
-        <v>13.73</v>
+        <v>13.76</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>1227</v>
@@ -33780,7 +33780,7 @@
         <v>1218</v>
       </c>
       <c r="E379" s="1">
-        <v>13.73</v>
+        <v>13.76</v>
       </c>
       <c r="F379" s="1" t="s">
         <v>1220</v>
@@ -33824,7 +33824,7 @@
         <v>1219</v>
       </c>
       <c r="E380" s="1">
-        <v>13.73</v>
+        <v>13.76</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>1227</v>
@@ -33865,7 +33865,7 @@
         <v>1219</v>
       </c>
       <c r="E381" s="1">
-        <v>13.73</v>
+        <v>13.76</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>1225</v>
@@ -33906,7 +33906,7 @@
         <v>1219</v>
       </c>
       <c r="E382" s="1">
-        <v>13.73</v>
+        <v>13.76</v>
       </c>
       <c r="F382" s="1" t="s">
         <v>1224</v>
@@ -33947,7 +33947,7 @@
         <v>1219</v>
       </c>
       <c r="E383" s="1">
-        <v>13.73</v>
+        <v>13.76</v>
       </c>
       <c r="F383" s="1" t="s">
         <v>1226</v>
@@ -33988,7 +33988,7 @@
         <v>1219</v>
       </c>
       <c r="E384" s="1">
-        <v>13.73</v>
+        <v>13.76</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>1222</v>
@@ -34029,7 +34029,7 @@
         <v>1219</v>
       </c>
       <c r="E385" s="1">
-        <v>13.73</v>
+        <v>13.76</v>
       </c>
       <c r="F385" s="1" t="s">
         <v>1226</v>
@@ -34070,7 +34070,7 @@
         <v>1219</v>
       </c>
       <c r="E386" s="1">
-        <v>13.73</v>
+        <v>13.76</v>
       </c>
       <c r="F386" s="1" t="s">
         <v>1222</v>
@@ -34111,7 +34111,7 @@
         <v>1219</v>
       </c>
       <c r="E387" s="1">
-        <v>13.73</v>
+        <v>13.76</v>
       </c>
       <c r="F387" s="1" t="s">
         <v>1226</v>
@@ -34152,7 +34152,7 @@
         <v>1219</v>
       </c>
       <c r="E388" s="1">
-        <v>13.73</v>
+        <v>13.76</v>
       </c>
       <c r="F388" s="1" t="s">
         <v>1225</v>
@@ -34193,7 +34193,7 @@
         <v>1219</v>
       </c>
       <c r="E389" s="1">
-        <v>13.73</v>
+        <v>13.76</v>
       </c>
       <c r="F389" s="1" t="s">
         <v>1225</v>
@@ -34234,7 +34234,7 @@
         <v>1218</v>
       </c>
       <c r="E390" s="1">
-        <v>40.87</v>
+        <v>40.9</v>
       </c>
       <c r="F390" s="1" t="s">
         <v>1220</v>
@@ -34287,7 +34287,7 @@
         <v>1219</v>
       </c>
       <c r="E391" s="1">
-        <v>49.15</v>
+        <v>49.18</v>
       </c>
       <c r="F391" s="1" t="s">
         <v>1222</v>
@@ -34328,7 +34328,7 @@
         <v>1218</v>
       </c>
       <c r="E392" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F392" s="1" t="s">
         <v>1220</v>
@@ -34372,7 +34372,7 @@
         <v>1219</v>
       </c>
       <c r="E393" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F393" s="1" t="s">
         <v>1226</v>
@@ -34413,7 +34413,7 @@
         <v>1219</v>
       </c>
       <c r="E394" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F394" s="1" t="s">
         <v>1228</v>
@@ -34454,7 +34454,7 @@
         <v>1219</v>
       </c>
       <c r="E395" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F395" s="1" t="s">
         <v>1227</v>
@@ -34495,7 +34495,7 @@
         <v>1219</v>
       </c>
       <c r="E396" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F396" s="1" t="s">
         <v>1226</v>
@@ -34536,7 +34536,7 @@
         <v>1219</v>
       </c>
       <c r="E397" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F397" s="1" t="s">
         <v>1222</v>
@@ -34577,7 +34577,7 @@
         <v>1219</v>
       </c>
       <c r="E398" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F398" s="1" t="s">
         <v>1226</v>
@@ -34618,7 +34618,7 @@
         <v>1219</v>
       </c>
       <c r="E399" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F399" s="1" t="s">
         <v>1230</v>
@@ -34659,7 +34659,7 @@
         <v>1219</v>
       </c>
       <c r="E400" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F400" s="1" t="s">
         <v>1222</v>
@@ -34700,7 +34700,7 @@
         <v>1219</v>
       </c>
       <c r="E401" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F401" s="1" t="s">
         <v>1227</v>
@@ -34741,7 +34741,7 @@
         <v>1219</v>
       </c>
       <c r="E402" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F402" s="1" t="s">
         <v>1224</v>
@@ -34782,7 +34782,7 @@
         <v>1219</v>
       </c>
       <c r="E403" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F403" s="1" t="s">
         <v>1226</v>
@@ -34823,7 +34823,7 @@
         <v>1219</v>
       </c>
       <c r="E404" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>1228</v>
@@ -34864,7 +34864,7 @@
         <v>1219</v>
       </c>
       <c r="E405" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F405" s="1" t="s">
         <v>1221</v>
@@ -34905,7 +34905,7 @@
         <v>1219</v>
       </c>
       <c r="E406" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F406" s="1" t="s">
         <v>1225</v>
@@ -34946,7 +34946,7 @@
         <v>1218</v>
       </c>
       <c r="E407" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F407" s="1" t="s">
         <v>1220</v>
@@ -34990,7 +34990,7 @@
         <v>1219</v>
       </c>
       <c r="E408" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F408" s="1" t="s">
         <v>1227</v>
@@ -35031,7 +35031,7 @@
         <v>1219</v>
       </c>
       <c r="E409" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F409" s="1" t="s">
         <v>1224</v>
@@ -35072,7 +35072,7 @@
         <v>1219</v>
       </c>
       <c r="E410" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F410" s="1" t="s">
         <v>1227</v>
@@ -35113,7 +35113,7 @@
         <v>1219</v>
       </c>
       <c r="E411" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F411" s="1" t="s">
         <v>1225</v>
@@ -35154,7 +35154,7 @@
         <v>1219</v>
       </c>
       <c r="E412" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F412" s="1" t="s">
         <v>1226</v>
@@ -35195,7 +35195,7 @@
         <v>1219</v>
       </c>
       <c r="E413" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F413" s="1" t="s">
         <v>1229</v>
@@ -35236,7 +35236,7 @@
         <v>1219</v>
       </c>
       <c r="E414" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F414" s="1" t="s">
         <v>1225</v>
@@ -35277,7 +35277,7 @@
         <v>1219</v>
       </c>
       <c r="E415" s="1">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="F415" s="1" t="s">
         <v>1227</v>
@@ -35318,7 +35318,7 @@
         <v>1218</v>
       </c>
       <c r="E416" s="1">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F416" s="1" t="s">
         <v>1220</v>
@@ -35362,7 +35362,7 @@
         <v>1219</v>
       </c>
       <c r="E417" s="1">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F417" s="1" t="s">
         <v>1226</v>
@@ -35403,7 +35403,7 @@
         <v>1218</v>
       </c>
       <c r="E418" s="1">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F418" s="1" t="s">
         <v>1220</v>
@@ -35447,7 +35447,7 @@
         <v>1219</v>
       </c>
       <c r="E419" s="1">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F419" s="1" t="s">
         <v>1222</v>
@@ -35488,7 +35488,7 @@
         <v>1219</v>
       </c>
       <c r="E420" s="1">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F420" s="1" t="s">
         <v>1229</v>
@@ -35529,7 +35529,7 @@
         <v>1219</v>
       </c>
       <c r="E421" s="1">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F421" s="1" t="s">
         <v>1228</v>
@@ -35570,7 +35570,7 @@
         <v>1219</v>
       </c>
       <c r="E422" s="1">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>1227</v>
@@ -35611,7 +35611,7 @@
         <v>1219</v>
       </c>
       <c r="E423" s="1">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F423" s="1" t="s">
         <v>1223</v>
@@ -35652,7 +35652,7 @@
         <v>1219</v>
       </c>
       <c r="E424" s="1">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F424" s="1" t="s">
         <v>1225</v>
@@ -35693,7 +35693,7 @@
         <v>1219</v>
       </c>
       <c r="E425" s="1">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F425" s="1" t="s">
         <v>1226</v>
@@ -35734,7 +35734,7 @@
         <v>1219</v>
       </c>
       <c r="E426" s="1">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F426" s="1" t="s">
         <v>1222</v>
@@ -35775,7 +35775,7 @@
         <v>1219</v>
       </c>
       <c r="E427" s="1">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F427" s="1" t="s">
         <v>1221</v>
@@ -35816,7 +35816,7 @@
         <v>1218</v>
       </c>
       <c r="E428" s="1">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F428" s="1" t="s">
         <v>1220</v>
@@ -35860,7 +35860,7 @@
         <v>1219</v>
       </c>
       <c r="E429" s="1">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F429" s="1" t="s">
         <v>1221</v>
@@ -35901,7 +35901,7 @@
         <v>1219</v>
       </c>
       <c r="E430" s="1">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F430" s="1" t="s">
         <v>1221</v>
@@ -35942,7 +35942,7 @@
         <v>1219</v>
       </c>
       <c r="E431" s="1">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F431" s="1" t="s">
         <v>1222</v>
@@ -35983,7 +35983,7 @@
         <v>1219</v>
       </c>
       <c r="E432" s="1">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F432" s="1" t="s">
         <v>1222</v>
@@ -36024,7 +36024,7 @@
         <v>1219</v>
       </c>
       <c r="E433" s="1">
-        <v>11.66</v>
+        <v>11.7</v>
       </c>
       <c r="F433" s="1" t="s">
         <v>1224</v>
@@ -36065,7 +36065,7 @@
         <v>1219</v>
       </c>
       <c r="E434" s="1">
-        <v>40.87</v>
+        <v>40.9</v>
       </c>
       <c r="F434" s="1" t="s">
         <v>1221</v>
@@ -36106,7 +36106,7 @@
         <v>1218</v>
       </c>
       <c r="E435" s="1">
-        <v>40.87</v>
+        <v>40.9</v>
       </c>
       <c r="F435" s="1" t="s">
         <v>1220</v>
@@ -36150,7 +36150,7 @@
         <v>1219</v>
       </c>
       <c r="E436" s="1">
-        <v>40.87</v>
+        <v>40.9</v>
       </c>
       <c r="F436" s="1" t="s">
         <v>1223</v>
@@ -36191,7 +36191,7 @@
         <v>1218</v>
       </c>
       <c r="E437" s="1">
-        <v>69.15000000000001</v>
+        <v>69.19</v>
       </c>
       <c r="F437" s="1" t="s">
         <v>1220</v>
@@ -36238,7 +36238,7 @@
         <v>1219</v>
       </c>
       <c r="E438" s="1">
-        <v>51.91</v>
+        <v>51.94</v>
       </c>
       <c r="F438" s="1" t="s">
         <v>1224</v>
@@ -36279,7 +36279,7 @@
         <v>1219</v>
       </c>
       <c r="E439" s="1">
-        <v>40.87</v>
+        <v>40.9</v>
       </c>
       <c r="F439" s="1" t="s">
         <v>1224</v>
@@ -36320,7 +36320,7 @@
         <v>1219</v>
       </c>
       <c r="E440" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F440" s="1" t="s">
         <v>1227</v>
@@ -36361,7 +36361,7 @@
         <v>1219</v>
       </c>
       <c r="E441" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F441" s="1" t="s">
         <v>1226</v>
@@ -36402,7 +36402,7 @@
         <v>1219</v>
       </c>
       <c r="E442" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F442" s="1" t="s">
         <v>1226</v>
@@ -36443,7 +36443,7 @@
         <v>1219</v>
       </c>
       <c r="E443" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F443" s="1" t="s">
         <v>1226</v>
@@ -36484,7 +36484,7 @@
         <v>1219</v>
       </c>
       <c r="E444" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F444" s="1" t="s">
         <v>1226</v>
@@ -36525,7 +36525,7 @@
         <v>1219</v>
       </c>
       <c r="E445" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F445" s="1" t="s">
         <v>1228</v>
@@ -36566,7 +36566,7 @@
         <v>1219</v>
       </c>
       <c r="E446" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F446" s="1" t="s">
         <v>1226</v>
@@ -36607,7 +36607,7 @@
         <v>1219</v>
       </c>
       <c r="E447" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F447" s="1" t="s">
         <v>1227</v>
@@ -36648,7 +36648,7 @@
         <v>1219</v>
       </c>
       <c r="E448" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F448" s="1" t="s">
         <v>1226</v>
@@ -36689,7 +36689,7 @@
         <v>1219</v>
       </c>
       <c r="E449" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F449" s="1" t="s">
         <v>1230</v>
@@ -36730,7 +36730,7 @@
         <v>1218</v>
       </c>
       <c r="E450" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F450" s="1" t="s">
         <v>1220</v>
@@ -36774,7 +36774,7 @@
         <v>1219</v>
       </c>
       <c r="E451" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F451" s="1" t="s">
         <v>1227</v>
@@ -36815,7 +36815,7 @@
         <v>1219</v>
       </c>
       <c r="E452" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F452" s="1" t="s">
         <v>1223</v>
@@ -36856,7 +36856,7 @@
         <v>1219</v>
       </c>
       <c r="E453" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F453" s="1" t="s">
         <v>1222</v>
@@ -36897,7 +36897,7 @@
         <v>1219</v>
       </c>
       <c r="E454" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F454" s="1" t="s">
         <v>1223</v>
@@ -36938,7 +36938,7 @@
         <v>1219</v>
       </c>
       <c r="E455" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F455" s="1" t="s">
         <v>1227</v>
@@ -36979,7 +36979,7 @@
         <v>1219</v>
       </c>
       <c r="E456" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F456" s="1" t="s">
         <v>1226</v>
@@ -37020,7 +37020,7 @@
         <v>1219</v>
       </c>
       <c r="E457" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F457" s="1" t="s">
         <v>1222</v>
@@ -37061,7 +37061,7 @@
         <v>1219</v>
       </c>
       <c r="E458" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F458" s="1" t="s">
         <v>1222</v>
@@ -37102,7 +37102,7 @@
         <v>1218</v>
       </c>
       <c r="E459" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F459" s="1" t="s">
         <v>1220</v>
@@ -37146,7 +37146,7 @@
         <v>1219</v>
       </c>
       <c r="E460" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F460" s="1" t="s">
         <v>1222</v>
@@ -37187,7 +37187,7 @@
         <v>1219</v>
       </c>
       <c r="E461" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F461" s="1" t="s">
         <v>1225</v>
@@ -37228,7 +37228,7 @@
         <v>1219</v>
       </c>
       <c r="E462" s="1">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="F462" s="1" t="s">
         <v>1229</v>
@@ -37269,7 +37269,7 @@
         <v>1219</v>
       </c>
       <c r="E463" s="1">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="F463" s="1" t="s">
         <v>1229</v>
@@ -37310,7 +37310,7 @@
         <v>1219</v>
       </c>
       <c r="E464" s="1">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="F464" s="1" t="s">
         <v>1229</v>
@@ -37351,7 +37351,7 @@
         <v>1219</v>
       </c>
       <c r="E465" s="1">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="F465" s="1" t="s">
         <v>1227</v>
@@ -37392,7 +37392,7 @@
         <v>1219</v>
       </c>
       <c r="E466" s="1">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="F466" s="1" t="s">
         <v>1224</v>
@@ -37433,7 +37433,7 @@
         <v>1219</v>
       </c>
       <c r="E467" s="1">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="F467" s="1" t="s">
         <v>1222</v>
@@ -37474,7 +37474,7 @@
         <v>1219</v>
       </c>
       <c r="E468" s="1">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="F468" s="1" t="s">
         <v>1223</v>
@@ -37515,7 +37515,7 @@
         <v>1218</v>
       </c>
       <c r="E469" s="1">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="F469" s="1" t="s">
         <v>1220</v>
@@ -37559,7 +37559,7 @@
         <v>1219</v>
       </c>
       <c r="E470" s="1">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="F470" s="1" t="s">
         <v>1229</v>
@@ -37600,7 +37600,7 @@
         <v>1219</v>
       </c>
       <c r="E471" s="1">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="F471" s="1" t="s">
         <v>1222</v>
@@ -37641,7 +37641,7 @@
         <v>1219</v>
       </c>
       <c r="E472" s="1">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="F472" s="1" t="s">
         <v>1223</v>
@@ -37682,7 +37682,7 @@
         <v>1219</v>
       </c>
       <c r="E473" s="1">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="F473" s="1" t="s">
         <v>1226</v>
@@ -37723,7 +37723,7 @@
         <v>1219</v>
       </c>
       <c r="E474" s="1">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="F474" s="1" t="s">
         <v>1226</v>
@@ -37764,7 +37764,7 @@
         <v>1219</v>
       </c>
       <c r="E475" s="1">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="F475" s="1" t="s">
         <v>1226</v>
@@ -37805,7 +37805,7 @@
         <v>1219</v>
       </c>
       <c r="E476" s="1">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="F476" s="1" t="s">
         <v>1228</v>
@@ -37846,7 +37846,7 @@
         <v>1219</v>
       </c>
       <c r="E477" s="1">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="F477" s="1" t="s">
         <v>1228</v>
@@ -37887,7 +37887,7 @@
         <v>1219</v>
       </c>
       <c r="E478" s="1">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="F478" s="1" t="s">
         <v>1226</v>
@@ -37928,7 +37928,7 @@
         <v>1219</v>
       </c>
       <c r="E479" s="1">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="F479" s="1" t="s">
         <v>1223</v>
@@ -37969,7 +37969,7 @@
         <v>1219</v>
       </c>
       <c r="E480" s="1">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="F480" s="1" t="s">
         <v>1227</v>
@@ -38010,7 +38010,7 @@
         <v>1219</v>
       </c>
       <c r="E481" s="1">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="F481" s="1" t="s">
         <v>1229</v>
@@ -38051,7 +38051,7 @@
         <v>1219</v>
       </c>
       <c r="E482" s="1">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="F482" s="1" t="s">
         <v>1229</v>
@@ -38092,7 +38092,7 @@
         <v>1219</v>
       </c>
       <c r="E483" s="1">
-        <v>93.06999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F483" s="1" t="s">
         <v>1224</v>
@@ -38133,7 +38133,7 @@
         <v>1218</v>
       </c>
       <c r="E484" s="1">
-        <v>81.11</v>
+        <v>81.14</v>
       </c>
       <c r="F484" s="1" t="s">
         <v>1220</v>
@@ -38177,7 +38177,7 @@
         <v>1218</v>
       </c>
       <c r="E485" s="1">
-        <v>45.01</v>
+        <v>45.04</v>
       </c>
       <c r="F485" s="1" t="s">
         <v>1220</v>
@@ -38233,7 +38233,7 @@
         <v>1218</v>
       </c>
       <c r="E486" s="1">
-        <v>61.33</v>
+        <v>61.37</v>
       </c>
       <c r="F486" s="1" t="s">
         <v>1220</v>
@@ -38277,7 +38277,7 @@
         <v>1218</v>
       </c>
       <c r="E487" s="1">
-        <v>65.7</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="F487" s="1" t="s">
         <v>1220</v>
@@ -38321,7 +38321,7 @@
         <v>1218</v>
       </c>
       <c r="E488" s="1">
-        <v>39.59</v>
+        <v>39.62</v>
       </c>
       <c r="F488" s="1" t="s">
         <v>1220</v>
@@ -38374,7 +38374,7 @@
         <v>1218</v>
       </c>
       <c r="E489" s="1">
-        <v>32.59</v>
+        <v>32.62</v>
       </c>
       <c r="F489" s="1" t="s">
         <v>1220</v>
@@ -38427,7 +38427,7 @@
         <v>1218</v>
       </c>
       <c r="E490" s="1">
-        <v>32.36</v>
+        <v>32.39</v>
       </c>
       <c r="F490" s="1" t="s">
         <v>1220</v>
@@ -38480,7 +38480,7 @@
         <v>1219</v>
       </c>
       <c r="E491" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F491" s="1" t="s">
         <v>1222</v>
@@ -38521,7 +38521,7 @@
         <v>1219</v>
       </c>
       <c r="E492" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F492" s="1" t="s">
         <v>1225</v>
@@ -38562,7 +38562,7 @@
         <v>1219</v>
       </c>
       <c r="E493" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F493" s="1" t="s">
         <v>1226</v>
@@ -38603,7 +38603,7 @@
         <v>1219</v>
       </c>
       <c r="E494" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F494" s="1" t="s">
         <v>1226</v>
@@ -38644,7 +38644,7 @@
         <v>1219</v>
       </c>
       <c r="E495" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F495" s="1" t="s">
         <v>1227</v>
@@ -38685,7 +38685,7 @@
         <v>1219</v>
       </c>
       <c r="E496" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F496" s="1" t="s">
         <v>1222</v>
@@ -38726,7 +38726,7 @@
         <v>1219</v>
       </c>
       <c r="E497" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F497" s="1" t="s">
         <v>1227</v>
@@ -38767,7 +38767,7 @@
         <v>1219</v>
       </c>
       <c r="E498" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F498" s="1" t="s">
         <v>1226</v>
@@ -38808,7 +38808,7 @@
         <v>1219</v>
       </c>
       <c r="E499" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F499" s="1" t="s">
         <v>1228</v>
@@ -38849,7 +38849,7 @@
         <v>1219</v>
       </c>
       <c r="E500" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F500" s="1" t="s">
         <v>1227</v>
@@ -38890,7 +38890,7 @@
         <v>1219</v>
       </c>
       <c r="E501" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F501" s="1" t="s">
         <v>1229</v>
@@ -38931,7 +38931,7 @@
         <v>1219</v>
       </c>
       <c r="E502" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F502" s="1" t="s">
         <v>1226</v>
@@ -38972,7 +38972,7 @@
         <v>1219</v>
       </c>
       <c r="E503" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F503" s="1" t="s">
         <v>1229</v>
@@ -39013,7 +39013,7 @@
         <v>1219</v>
       </c>
       <c r="E504" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F504" s="1" t="s">
         <v>1229</v>
@@ -39054,7 +39054,7 @@
         <v>1219</v>
       </c>
       <c r="E505" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F505" s="1" t="s">
         <v>1223</v>
@@ -39095,7 +39095,7 @@
         <v>1219</v>
       </c>
       <c r="E506" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F506" s="1" t="s">
         <v>1226</v>
@@ -39136,7 +39136,7 @@
         <v>1219</v>
       </c>
       <c r="E507" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F507" s="1" t="s">
         <v>1228</v>
@@ -39177,7 +39177,7 @@
         <v>1219</v>
       </c>
       <c r="E508" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F508" s="1" t="s">
         <v>1226</v>
@@ -39218,7 +39218,7 @@
         <v>1219</v>
       </c>
       <c r="E509" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F509" s="1" t="s">
         <v>1228</v>
@@ -39259,7 +39259,7 @@
         <v>1219</v>
       </c>
       <c r="E510" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F510" s="1" t="s">
         <v>1226</v>
@@ -39300,7 +39300,7 @@
         <v>1219</v>
       </c>
       <c r="E511" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F511" s="1" t="s">
         <v>1228</v>
@@ -39341,7 +39341,7 @@
         <v>1219</v>
       </c>
       <c r="E512" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F512" s="1" t="s">
         <v>1227</v>
@@ -39382,7 +39382,7 @@
         <v>1219</v>
       </c>
       <c r="E513" s="1">
-        <v>6.6</v>
+        <v>6.64</v>
       </c>
       <c r="F513" s="1" t="s">
         <v>1226</v>
@@ -39423,7 +39423,7 @@
         <v>1219</v>
       </c>
       <c r="E514" s="1">
-        <v>6.37</v>
+        <v>6.41</v>
       </c>
       <c r="F514" s="1" t="s">
         <v>1226</v>
@@ -39464,7 +39464,7 @@
         <v>1219</v>
       </c>
       <c r="E515" s="1">
-        <v>6.37</v>
+        <v>6.41</v>
       </c>
       <c r="F515" s="1" t="s">
         <v>1226</v>
@@ -39505,7 +39505,7 @@
         <v>1219</v>
       </c>
       <c r="E516" s="1">
-        <v>6.37</v>
+        <v>6.41</v>
       </c>
       <c r="F516" s="1" t="s">
         <v>1228</v>
@@ -39546,7 +39546,7 @@
         <v>1219</v>
       </c>
       <c r="E517" s="1">
-        <v>6.37</v>
+        <v>6.41</v>
       </c>
       <c r="F517" s="1" t="s">
         <v>1226</v>
@@ -39587,7 +39587,7 @@
         <v>1219</v>
       </c>
       <c r="E518" s="1">
-        <v>6.37</v>
+        <v>6.41</v>
       </c>
       <c r="F518" s="1" t="s">
         <v>1228</v>
@@ -39628,7 +39628,7 @@
         <v>1219</v>
       </c>
       <c r="E519" s="1">
-        <v>6.37</v>
+        <v>6.41</v>
       </c>
       <c r="F519" s="1" t="s">
         <v>1230</v>
@@ -39669,7 +39669,7 @@
         <v>1219</v>
       </c>
       <c r="E520" s="1">
-        <v>6.37</v>
+        <v>6.41</v>
       </c>
       <c r="F520" s="1" t="s">
         <v>1228</v>
@@ -39710,7 +39710,7 @@
         <v>1219</v>
       </c>
       <c r="E521" s="1">
-        <v>6.37</v>
+        <v>6.41</v>
       </c>
       <c r="F521" s="1" t="s">
         <v>1222</v>
@@ -39751,7 +39751,7 @@
         <v>1219</v>
       </c>
       <c r="E522" s="1">
-        <v>6.37</v>
+        <v>6.41</v>
       </c>
       <c r="F522" s="1" t="s">
         <v>1226</v>
@@ -39792,7 +39792,7 @@
         <v>1219</v>
       </c>
       <c r="E523" s="1">
-        <v>6.37</v>
+        <v>6.41</v>
       </c>
       <c r="F523" s="1" t="s">
         <v>1227</v>
@@ -39833,7 +39833,7 @@
         <v>1219</v>
       </c>
       <c r="E524" s="1">
-        <v>6.37</v>
+        <v>6.41</v>
       </c>
       <c r="F524" s="1" t="s">
         <v>1227</v>
@@ -39874,7 +39874,7 @@
         <v>1219</v>
       </c>
       <c r="E525" s="1">
-        <v>6.37</v>
+        <v>6.41</v>
       </c>
       <c r="F525" s="1" t="s">
         <v>1222</v>
@@ -39915,7 +39915,7 @@
         <v>1219</v>
       </c>
       <c r="E526" s="1">
-        <v>6.37</v>
+        <v>6.41</v>
       </c>
       <c r="F526" s="1" t="s">
         <v>1226</v>
@@ -39956,7 +39956,7 @@
         <v>1219</v>
       </c>
       <c r="E527" s="1">
-        <v>6.37</v>
+        <v>6.41</v>
       </c>
       <c r="F527" s="1" t="s">
         <v>1223</v>
@@ -39997,7 +39997,7 @@
         <v>1219</v>
       </c>
       <c r="E528" s="1">
-        <v>6.37</v>
+        <v>6.41</v>
       </c>
       <c r="F528" s="1" t="s">
         <v>1222</v>
@@ -40038,7 +40038,7 @@
         <v>1219</v>
       </c>
       <c r="E529" s="1">
-        <v>6.37</v>
+        <v>6.41</v>
       </c>
       <c r="F529" s="1" t="s">
         <v>1223</v>
@@ -40079,7 +40079,7 @@
         <v>1219</v>
       </c>
       <c r="E530" s="1">
-        <v>6.37</v>
+        <v>6.41</v>
       </c>
       <c r="F530" s="1" t="s">
         <v>1227</v>
@@ -40120,7 +40120,7 @@
         <v>1219</v>
       </c>
       <c r="E531" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F531" s="1" t="s">
         <v>1229</v>
@@ -40161,7 +40161,7 @@
         <v>1219</v>
       </c>
       <c r="E532" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F532" s="1" t="s">
         <v>1228</v>
@@ -40202,7 +40202,7 @@
         <v>1219</v>
       </c>
       <c r="E533" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F533" s="1" t="s">
         <v>1228</v>
@@ -40243,7 +40243,7 @@
         <v>1219</v>
       </c>
       <c r="E534" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F534" s="1" t="s">
         <v>1228</v>
@@ -40284,7 +40284,7 @@
         <v>1219</v>
       </c>
       <c r="E535" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F535" s="1" t="s">
         <v>1224</v>
@@ -40325,7 +40325,7 @@
         <v>1219</v>
       </c>
       <c r="E536" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F536" s="1" t="s">
         <v>1230</v>
@@ -40366,7 +40366,7 @@
         <v>1219</v>
       </c>
       <c r="E537" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F537" s="1" t="s">
         <v>1230</v>
@@ -40407,7 +40407,7 @@
         <v>1219</v>
       </c>
       <c r="E538" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F538" s="1" t="s">
         <v>1226</v>
@@ -40448,7 +40448,7 @@
         <v>1219</v>
       </c>
       <c r="E539" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F539" s="1" t="s">
         <v>1229</v>
@@ -40489,7 +40489,7 @@
         <v>1219</v>
       </c>
       <c r="E540" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F540" s="1" t="s">
         <v>1226</v>
@@ -40530,7 +40530,7 @@
         <v>1219</v>
       </c>
       <c r="E541" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F541" s="1" t="s">
         <v>1229</v>
@@ -40571,7 +40571,7 @@
         <v>1219</v>
       </c>
       <c r="E542" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F542" s="1" t="s">
         <v>1230</v>
@@ -40612,7 +40612,7 @@
         <v>1219</v>
       </c>
       <c r="E543" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F543" s="1" t="s">
         <v>1226</v>
@@ -40653,7 +40653,7 @@
         <v>1219</v>
       </c>
       <c r="E544" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F544" s="1" t="s">
         <v>1228</v>
@@ -40694,7 +40694,7 @@
         <v>1219</v>
       </c>
       <c r="E545" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F545" s="1" t="s">
         <v>1228</v>
@@ -40735,7 +40735,7 @@
         <v>1219</v>
       </c>
       <c r="E546" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F546" s="1" t="s">
         <v>1229</v>
@@ -40776,7 +40776,7 @@
         <v>1219</v>
       </c>
       <c r="E547" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F547" s="1" t="s">
         <v>1229</v>
@@ -40817,7 +40817,7 @@
         <v>1219</v>
       </c>
       <c r="E548" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F548" s="1" t="s">
         <v>1229</v>
@@ -40858,7 +40858,7 @@
         <v>1219</v>
       </c>
       <c r="E549" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F549" s="1" t="s">
         <v>1228</v>
@@ -40899,7 +40899,7 @@
         <v>1219</v>
       </c>
       <c r="E550" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F550" s="1" t="s">
         <v>1229</v>
@@ -40940,7 +40940,7 @@
         <v>1218</v>
       </c>
       <c r="E551" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F551" s="1" t="s">
         <v>1220</v>
@@ -40984,7 +40984,7 @@
         <v>1219</v>
       </c>
       <c r="E552" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F552" s="1" t="s">
         <v>1224</v>
@@ -41025,7 +41025,7 @@
         <v>1219</v>
       </c>
       <c r="E553" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F553" s="1" t="s">
         <v>1229</v>
@@ -41066,7 +41066,7 @@
         <v>1219</v>
       </c>
       <c r="E554" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F554" s="1" t="s">
         <v>1226</v>
@@ -41107,7 +41107,7 @@
         <v>1219</v>
       </c>
       <c r="E555" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F555" s="1" t="s">
         <v>1229</v>
@@ -41148,7 +41148,7 @@
         <v>1219</v>
       </c>
       <c r="E556" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F556" s="1" t="s">
         <v>1226</v>
@@ -41189,7 +41189,7 @@
         <v>1219</v>
       </c>
       <c r="E557" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F557" s="1" t="s">
         <v>1226</v>
@@ -41230,7 +41230,7 @@
         <v>1219</v>
       </c>
       <c r="E558" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F558" s="1" t="s">
         <v>1228</v>
@@ -41271,7 +41271,7 @@
         <v>1219</v>
       </c>
       <c r="E559" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F559" s="1" t="s">
         <v>1226</v>
@@ -41312,7 +41312,7 @@
         <v>1219</v>
       </c>
       <c r="E560" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F560" s="1" t="s">
         <v>1229</v>
@@ -41353,7 +41353,7 @@
         <v>1219</v>
       </c>
       <c r="E561" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F561" s="1" t="s">
         <v>1230</v>
@@ -41394,7 +41394,7 @@
         <v>1219</v>
       </c>
       <c r="E562" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F562" s="1" t="s">
         <v>1229</v>
@@ -41435,7 +41435,7 @@
         <v>1219</v>
       </c>
       <c r="E563" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="F563" s="1" t="s">
         <v>1224</v>
@@ -41476,7 +41476,7 @@
         <v>1218</v>
       </c>
       <c r="E564" s="1">
-        <v>48.92</v>
+        <v>48.95</v>
       </c>
       <c r="F564" s="1" t="s">
         <v>1220</v>
@@ -41529,7 +41529,7 @@
         <v>1219</v>
       </c>
       <c r="E565" s="1">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="F565" s="1" t="s">
         <v>1229</v>
@@ -41570,7 +41570,7 @@
         <v>1219</v>
       </c>
       <c r="E566" s="1">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="F566" s="1" t="s">
         <v>1230</v>
@@ -41611,7 +41611,7 @@
         <v>1219</v>
       </c>
       <c r="E567" s="1">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="F567" s="1" t="s">
         <v>1230</v>
@@ -41652,7 +41652,7 @@
         <v>1219</v>
       </c>
       <c r="E568" s="1">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="F568" s="1" t="s">
         <v>1230</v>
@@ -41693,7 +41693,7 @@
         <v>1219</v>
       </c>
       <c r="E569" s="1">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="F569" s="1" t="s">
         <v>1230</v>
@@ -41734,7 +41734,7 @@
         <v>1219</v>
       </c>
       <c r="E570" s="1">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="F570" s="1" t="s">
         <v>1230</v>
@@ -41775,7 +41775,7 @@
         <v>1219</v>
       </c>
       <c r="E571" s="1">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="F571" s="1" t="s">
         <v>1230</v>
@@ -41816,7 +41816,7 @@
         <v>1219</v>
       </c>
       <c r="E572" s="1">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="F572" s="1" t="s">
         <v>1229</v>
@@ -41857,7 +41857,7 @@
         <v>1219</v>
       </c>
       <c r="E573" s="1">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="F573" s="1" t="s">
         <v>1230</v>
@@ -41898,7 +41898,7 @@
         <v>1219</v>
       </c>
       <c r="E574" s="1">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="F574" s="1" t="s">
         <v>1230</v>
@@ -41939,7 +41939,7 @@
         <v>1219</v>
       </c>
       <c r="E575" s="1">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="F575" s="1" t="s">
         <v>1229</v>
@@ -41980,7 +41980,7 @@
         <v>1219</v>
       </c>
       <c r="E576" s="1">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="F576" s="1" t="s">
         <v>1230</v>
@@ -42021,7 +42021,7 @@
         <v>1219</v>
       </c>
       <c r="E577" s="1">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="F577" s="1" t="s">
         <v>1230</v>
@@ -42062,7 +42062,7 @@
         <v>1218</v>
       </c>
       <c r="E578" s="1">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="F578" s="1" t="s">
         <v>1220</v>
@@ -42106,7 +42106,7 @@
         <v>1219</v>
       </c>
       <c r="E579" s="1">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="F579" s="1" t="s">
         <v>1228</v>
@@ -42147,7 +42147,7 @@
         <v>1219</v>
       </c>
       <c r="E580" s="1">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="F580" s="1" t="s">
         <v>1227</v>
@@ -42188,7 +42188,7 @@
         <v>1219</v>
       </c>
       <c r="E581" s="1">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="F581" s="1" t="s">
         <v>1228</v>
@@ -42229,7 +42229,7 @@
         <v>1219</v>
       </c>
       <c r="E582" s="1">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="F582" s="1" t="s">
         <v>1228</v>
@@ -42270,7 +42270,7 @@
         <v>1219</v>
       </c>
       <c r="E583" s="1">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="F583" s="1" t="s">
         <v>1229</v>
@@ -42311,7 +42311,7 @@
         <v>1219</v>
       </c>
       <c r="E584" s="1">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="F584" s="1" t="s">
         <v>1228</v>
@@ -42352,7 +42352,7 @@
         <v>1219</v>
       </c>
       <c r="E585" s="1">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="F585" s="1" t="s">
         <v>1228</v>
@@ -42393,7 +42393,7 @@
         <v>1219</v>
       </c>
       <c r="E586" s="1">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="F586" s="1" t="s">
         <v>1230</v>
@@ -42434,7 +42434,7 @@
         <v>1219</v>
       </c>
       <c r="E587" s="1">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="F587" s="1" t="s">
         <v>1228</v>
@@ -42475,7 +42475,7 @@
         <v>1219</v>
       </c>
       <c r="E588" s="1">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="F588" s="1" t="s">
         <v>1223</v>
@@ -42516,7 +42516,7 @@
         <v>1219</v>
       </c>
       <c r="E589" s="1">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="F589" s="1" t="s">
         <v>1229</v>
@@ -42557,7 +42557,7 @@
         <v>1219</v>
       </c>
       <c r="E590" s="1">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="F590" s="1" t="s">
         <v>1228</v>
@@ -42598,7 +42598,7 @@
         <v>1219</v>
       </c>
       <c r="E591" s="1">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="F591" s="1" t="s">
         <v>1230</v>
@@ -42639,7 +42639,7 @@
         <v>1219</v>
       </c>
       <c r="E592" s="1">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="F592" s="1" t="s">
         <v>1228</v>
@@ -42680,7 +42680,7 @@
         <v>1219</v>
       </c>
       <c r="E593" s="1">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="F593" s="1" t="s">
         <v>1229</v>
@@ -42708,9 +42708,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R11">
+  <autoFilter ref="A1:R1000">
     <filterColumn colId="11">
-      <filters blank="1"/>
+      <filters>
+        <filter val="(Blanks)"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="E2:E1000">
